--- a/rrd/AppData/ContactDistribution_DefineTeam.xlsx
+++ b/rrd/AppData/ContactDistribution_DefineTeam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rai Sigh\git\RRD_Opportunity\rrd\AppData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09396FE5-AABA-431D-B5A0-9AEF82DDB1B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A1F975-1E34-43C3-BDE7-98F6409615D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -211,7 +211,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -232,6 +232,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -655,7 +656,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -783,7 +784,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -836,11 +837,11 @@
       <c r="E2" t="s">
         <v>22</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="14">
         <v>30</v>
       </c>
-      <c r="G2">
-        <v>30</v>
+      <c r="G2" s="14">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -987,11 +988,11 @@
       <c r="H2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="9">
-        <v>5</v>
-      </c>
-      <c r="J2" s="9">
-        <v>5</v>
+      <c r="I2" s="14">
+        <v>15</v>
+      </c>
+      <c r="J2" s="14">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1019,11 +1020,11 @@
       <c r="H3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="9">
-        <v>5</v>
-      </c>
-      <c r="J3" s="9">
-        <v>5</v>
+      <c r="I3" s="14">
+        <v>15</v>
+      </c>
+      <c r="J3" s="14">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
